--- a/mbs-perturbation/greedy/decisionTree/greedy-decisionTree-results.xlsx
+++ b/mbs-perturbation/greedy/decisionTree/greedy-decisionTree-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1081081081081081</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.764069264069264</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4927884615384616</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0.4519230769230769</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C5" t="n">
         <v>0.5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.6911057692307692</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.008888888888888889</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01762114537444934</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5173160173160174</v>
+        <v>0.2644230769230769</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4135424836601307</v>
+        <v>0.03209373408048905</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2584791840298448</v>
+        <v>0.04963946869070208</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6896103896103896</v>
+        <v>0.4723557692307693</v>
       </c>
     </row>
   </sheetData>
